--- a/Team-Data/2007-08/3-22-2007-08.xlsx
+++ b/Team-Data/2007-08/3-22-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
         <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.435</v>
+        <v>0.426</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -693,10 +760,10 @@
         <v>4.4</v>
       </c>
       <c r="M2" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O2" t="n">
         <v>21</v>
@@ -711,16 +778,16 @@
         <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
         <v>42.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
         <v>7.4</v>
@@ -732,19 +799,19 @@
         <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB2" t="n">
         <v>96.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -765,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>27</v>
@@ -786,19 +853,19 @@
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.797</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L3" t="n">
         <v>7.2</v>
@@ -878,13 +945,13 @@
         <v>18.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O3" t="n">
         <v>20.7</v>
       </c>
       <c r="P3" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q3" t="n">
         <v>0.77</v>
@@ -902,31 +969,31 @@
         <v>22.2</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA3" t="n">
         <v>22.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,13 +1008,13 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -959,13 +1026,13 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
@@ -983,13 +1050,13 @@
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
         <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>0.362</v>
+        <v>0.353</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,19 +1115,19 @@
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.445</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O4" t="n">
         <v>18.1</v>
@@ -1069,16 +1136,16 @@
         <v>25.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="R4" t="n">
         <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U4" t="n">
         <v>20.9</v>
@@ -1096,7 +1163,7 @@
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1105,10 +1172,10 @@
         <v>95.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.9</v>
+        <v>-5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1126,7 +1193,7 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1153,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>24</v>
@@ -1177,13 +1244,13 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>0.391</v>
+        <v>0.397</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1233,16 +1300,16 @@
         <v>84.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O5" t="n">
         <v>18.6</v>
@@ -1260,19 +1327,19 @@
         <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
@@ -1284,19 +1351,19 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
@@ -1335,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>9</v>
@@ -1362,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>7.1</v>
@@ -1424,28 +1491,28 @@
         <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R6" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
         <v>14.1</v>
@@ -1469,7 +1536,7 @@
         <v>97.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD6" t="n">
         <v>2</v>
@@ -1493,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1511,31 +1578,31 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
         <v>9</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1681,13 +1748,13 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN7" t="n">
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
@@ -1699,7 +1766,7 @@
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>7</v>
@@ -1708,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
@@ -1717,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>22</v>
@@ -1726,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1878,10 +1945,10 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>4</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2060,13 +2127,13 @@
         <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2245,10 +2312,10 @@
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2266,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
         <v>47</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J11" t="n">
-        <v>81.8</v>
+        <v>81.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.45</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N11" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O11" t="n">
         <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q11" t="n">
         <v>0.721</v>
@@ -2349,16 +2416,16 @@
         <v>12.1</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V11" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2370,16 +2437,16 @@
         <v>4.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>19.6</v>
       </c>
-      <c r="AA11" t="n">
-        <v>19.7</v>
-      </c>
       <c r="AB11" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD11" t="n">
         <v>4</v>
@@ -2388,19 +2455,19 @@
         <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>14</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>18</v>
@@ -2421,19 +2488,19 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>10</v>
@@ -2445,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>4</v>
@@ -2454,10 +2521,10 @@
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
         <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.414</v>
+        <v>0.406</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2510,13 +2577,13 @@
         <v>0.442</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M12" t="n">
         <v>24.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
         <v>18.9</v>
@@ -2543,7 +2610,7 @@
         <v>15.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
@@ -2552,7 +2619,7 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA12" t="n">
         <v>21.7</v>
@@ -2561,19 +2628,19 @@
         <v>103.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
         <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2597,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>18</v>
@@ -2606,7 +2673,7 @@
         <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="n">
-        <v>0.304</v>
+        <v>0.309</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,7 +2753,7 @@
         <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.438</v>
@@ -2695,19 +2762,19 @@
         <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P13" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
@@ -2719,10 +2786,10 @@
         <v>39.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2731,22 +2798,22 @@
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2764,10 +2831,10 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2779,28 +2846,28 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>27</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>0.261</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O15" t="n">
         <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R15" t="n">
         <v>10.4</v>
@@ -3086,7 +3153,7 @@
         <v>19.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
         <v>6.1</v>
@@ -3104,13 +3171,13 @@
         <v>22.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3128,13 +3195,13 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3143,16 +3210,16 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>12</v>
@@ -3167,13 +3234,13 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" t="n">
-        <v>0.174</v>
+        <v>0.176</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3235,7 +3302,7 @@
         <v>77.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L16" t="n">
         <v>5.4</v>
@@ -3244,13 +3311,13 @@
         <v>15.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
         <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q16" t="n">
         <v>0.72</v>
@@ -3265,13 +3332,13 @@
         <v>37.9</v>
       </c>
       <c r="U16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
         <v>4.2</v>
@@ -3280,19 +3347,19 @@
         <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>0.353</v>
+        <v>0.343</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J17" t="n">
         <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
@@ -3438,16 +3505,16 @@
         <v>0.736</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T17" t="n">
         <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
         <v>14.4</v>
@@ -3462,19 +3529,19 @@
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3507,7 +3574,7 @@
         <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -3522,13 +3589,13 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>23</v>
@@ -3543,13 +3610,13 @@
         <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>0.261</v>
+        <v>0.25</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
@@ -3611,52 +3678,52 @@
         <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R18" t="n">
         <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V18" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>3.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.5</v>
+        <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3668,7 +3735,7 @@
         <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3677,7 +3744,7 @@
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,22 +3762,22 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
         <v>11</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>19</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>12</v>
@@ -3722,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>30</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.414</v>
+        <v>0.42</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J19" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
         <v>5.8</v>
@@ -3790,7 +3857,7 @@
         <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
         <v>20.2</v>
@@ -3799,10 +3866,10 @@
         <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R19" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S19" t="n">
         <v>30.8</v>
@@ -3817,7 +3884,7 @@
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3832,7 +3899,7 @@
         <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>-5.2</v>
@@ -3841,7 +3908,7 @@
         <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3859,16 +3926,16 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,25 +3944,25 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS19" t="n">
         <v>14</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>12</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW19" t="n">
         <v>25</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3913,7 +3980,7 @@
         <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,37 +4027,37 @@
         <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.463</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
         <v>19.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="O20" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
@@ -3999,7 +4066,7 @@
         <v>12.2</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>3.9</v>
@@ -4011,19 +4078,19 @@
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AC20" t="n">
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
@@ -4056,22 +4123,22 @@
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS20" t="n">
         <v>13</v>
       </c>
-      <c r="AS20" t="n">
-        <v>14</v>
-      </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>0.275</v>
+        <v>0.279</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,7 +4209,7 @@
         <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K21" t="n">
         <v>0.438</v>
@@ -4151,16 +4218,16 @@
         <v>5.8</v>
       </c>
       <c r="M21" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q21" t="n">
         <v>0.726</v>
@@ -4169,16 +4236,16 @@
         <v>12.1</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
         <v>18.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W21" t="n">
         <v>6.2</v>
@@ -4193,16 +4260,16 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7</v>
+        <v>-6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4223,10 +4290,10 @@
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>16</v>
@@ -4235,19 +4302,19 @@
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4271,13 +4338,13 @@
         <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
         <v>46</v>
       </c>
       <c r="F22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.639</v>
+        <v>0.648</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4327,25 +4394,25 @@
         <v>78.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L22" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
         <v>0.386</v>
       </c>
       <c r="O22" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P22" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.726</v>
+        <v>0.728</v>
       </c>
       <c r="R22" t="n">
         <v>9.5</v>
@@ -4354,7 +4421,7 @@
         <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U22" t="n">
         <v>20.5</v>
@@ -4369,31 +4436,31 @@
         <v>4.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4402,10 +4469,10 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
         <v>1</v>
@@ -4417,7 +4484,7 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4441,13 +4508,13 @@
         <v>15</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX22" t="n">
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -4488,58 +4555,58 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="n">
         <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
         <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.318</v>
+        <v>0.319</v>
       </c>
       <c r="O23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P23" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q23" t="n">
         <v>0.705</v>
       </c>
       <c r="R23" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
@@ -4560,7 +4627,7 @@
         <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>0.6</v>
@@ -4569,7 +4636,7 @@
         <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4599,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4614,7 +4681,7 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>24</v>
@@ -4623,7 +4690,7 @@
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
         <v>13</v>
@@ -4635,10 +4702,10 @@
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,28 +4755,28 @@
         <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="L24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N24" t="n">
         <v>0.391</v>
       </c>
       <c r="O24" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="P24" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
@@ -4721,7 +4788,7 @@
         <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="V24" t="n">
         <v>14.4</v>
@@ -4739,28 +4806,28 @@
         <v>19.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.2</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="n">
         <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,19 +4848,19 @@
         <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4811,13 +4878,13 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
         <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -4852,82 +4919,82 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
         <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.529</v>
+        <v>0.522</v>
       </c>
       <c r="H25" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I25" t="n">
         <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
         <v>17.8</v>
       </c>
       <c r="P25" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S25" t="n">
         <v>29.6</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
         <v>21.1</v>
       </c>
       <c r="V25" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W25" t="n">
         <v>5.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
         <v>4</v>
@@ -4951,7 +5018,7 @@
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>22</v>
@@ -4969,22 +5036,22 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -4993,7 +5060,7 @@
         <v>21</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="n">
-        <v>0.449</v>
+        <v>0.456</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.46</v>
@@ -5061,13 +5128,13 @@
         <v>6.2</v>
       </c>
       <c r="M26" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N26" t="n">
         <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="P26" t="n">
         <v>27.8</v>
@@ -5079,19 +5146,19 @@
         <v>10.4</v>
       </c>
       <c r="S26" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T26" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V26" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X26" t="n">
         <v>4.2</v>
@@ -5103,16 +5170,16 @@
         <v>22.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5127,13 +5194,13 @@
         <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5154,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>26</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF27" t="n">
         <v>7</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>6</v>
       </c>
       <c r="AG27" t="n">
         <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5318,7 +5385,7 @@
         <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
         <v>8</v>
@@ -5339,13 +5406,13 @@
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
         <v>21</v>
       </c>
       <c r="AU27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5369,7 +5436,7 @@
         <v>25</v>
       </c>
       <c r="BC27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
-        <v>0.229</v>
+        <v>0.232</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,10 +5483,10 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
@@ -5431,13 +5498,13 @@
         <v>0.338</v>
       </c>
       <c r="O28" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
         <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>11.9</v>
@@ -5446,16 +5513,16 @@
         <v>32.7</v>
       </c>
       <c r="T28" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
         <v>16.6</v>
       </c>
       <c r="W28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
@@ -5464,10 +5531,10 @@
         <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
         <v>97.7</v>
@@ -5509,13 +5576,13 @@
         <v>27</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>10</v>
@@ -5527,22 +5594,22 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5670,7 +5737,7 @@
         <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5694,7 +5761,7 @@
         <v>27</v>
       </c>
       <c r="AP29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" t="n">
         <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>0.648</v>
+        <v>0.643</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>39.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K30" t="n">
         <v>0.496</v>
@@ -5789,28 +5856,28 @@
         <v>4.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="O30" t="n">
         <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R30" t="n">
         <v>11.3</v>
       </c>
       <c r="S30" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U30" t="n">
         <v>26.3</v>
@@ -5819,7 +5886,7 @@
         <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
@@ -5834,22 +5901,22 @@
         <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6067,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-22-2007-08</t>
+          <t>2008-03-22</t>
         </is>
       </c>
     </row>
